--- a/biology/Zoologie/Dino_Crisis_2/Dino_Crisis_2.xlsx
+++ b/biology/Zoologie/Dino_Crisis_2/Dino_Crisis_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dino Crisis 2 est un jeu vidéo d'action de type survival horror développé par Capcom Production Studio 4 et édité par Capcom en 2000 sur PlayStation. Il est sorti sur PlayStation et PC en 2000. Dino Crisis 2 a été créé par Shinji Mikami, le créateur de la série Resident Evil. C'est la suite du jeu Dino Crisis.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un an s'est écoulé depuis l'incident de la Tri-Énergie… Une agence gouvernementale avait entrepris de poursuivre les recherches du docteur Kirk portant sur la Tri-Énergie et une expérience de grande envergure fut réalisée quelque part dans le Midwest. Toutefois… voulant obtenir des résultats immédiats, ils omirent de prendre les précautions nécessaires et une fois de plus un accident survint. Cette fois-ci, la base de recherche entière, une école militaire, un centre de  recherches ainsi qu'une petite ville des alentours ont disparu. À leur place se trouve désormais une jungle épaisse venue d'un autre temps…
 </t>
@@ -542,7 +556,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Regina :
 Sexe : Féminin
@@ -587,7 +603,9 @@
           <t>Dinosaures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Vélociraptor : Dinosaure carnivore très commun, le Vélociraptor est un agile, rapide et farouche adversaire rencontré tout d'abord lorsque les membres du T.R.A.T et du S.O.R.T installent leur camp et établissent le briefing de la mission, consistant à sauver les 1 300 rescapés d'Edward City. Le groupe est vite décimé par l'attaque des reptiles, dont les seules survivants, Regina, Dylan, David, ne doivent leur salut qu'à l'intervention fortuite d'un Tyrannosaure. On les rencontre par la suite dans la jungle, semblant être leur terrain de chasse privilégié. Leurs capacités offensives résident dans l'utilisation de leurs dents acérées, leur queue aiguisée et de la charge de leur crâne. Ils sont les principaux dinosaures responsables de l'attaque d'Edward City. Cette famille de dinosaures se distingue en trois sous-groupes, tous étant caractérisés par une couleur unique :
 – le raptor vert sombre/marron : moins sanguinaires et résistants que le vert foncé et le rouge, ils restent tout de même les plus nombreux. Ils sont en premier lieu rencontrés dans la jungle ;
@@ -626,7 +644,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Année 2010 :  Un an s'est écoulé depuis les événements de Dino Crisis. La recherche sur la Tri-Énergie continue, cette fois entre les mains d'un organisme gouvernemental. Toutefois, un accident s'est produit une nouvelle fois : la base de recherche entière, une école militaire ainsi qu'une petite ville des alentours ont disparu, remplacés par une jungle préhistorique.
 Le 10 mai 2010 :  Une opération de recherche et de sauvetage est en cours par des membres du T.R.A.T. Leur mission : venir en aide aux 1300 rescapés, puis récupérer les données du projet Tri-Énergie. Cette équipe est composée des soldats Dylan Morton et Folk David, ainsi que la belle Regina. Lors de son arrivée sur l'île, l'équipe met en place le camp, mais est attaqué par des Vélociraptors en masse; presque tous les membres de l'équipe sont tués, à l'exception de Dylan, Regina et David. Mais, pourchassés par un Tyrannosaure (qui a reçu dans l'œil une roquette tirée par David), Dylan et Regina sont obligés de dévaler une pente. Ayant été retenus par des fougères durant leur chute, ils s'en sortiront indemnes.
@@ -667,6 +687,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
